--- a/textclassifier2_core/test_db/test.xlsx
+++ b/textclassifier2_core/test_db/test.xlsx
@@ -21,12 +21,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Characteristic 1</t>
-  </si>
-  <si>
-    <t>Characteristic 2</t>
-  </si>
-  <si>
     <t>Требуется починить телефон</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>Методисты</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>Тип</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,76 +427,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/textclassifier2_core/test_db/test.xlsx
+++ b/textclassifier2_core/test_db/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Text</t>
   </si>
@@ -58,6 +58,70 @@
   </si>
   <si>
     <t>Тип</t>
+  </si>
+  <si>
+    <t>Агро</t>
+  </si>
+  <si>
+    <t>Необходимо в 1С ЕРП формировать "Перечень количества единиц Товара, отправленных Продавцом за отчетный период" и направлять в формате *.pdf, каждый понедельник, в 10:00, следующим получателям</t>
+  </si>
+  <si>
+    <t>По 90 счёту имеются расхождения между ОСВ (сумма выручки 254 142 – 23 106 = 231 035) и управленческой отчётностью   (230 151)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый день,
+В декларации по налогу на прибыль не заполняется стр.140 Приложение №4 к Листу 02 – нет возможности внести данные вручную.
+В ней должна отражаться сумма из стр. 100 Листа 02 (в нашем случае это – 50 291 764) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Коллеги,
+Пользователям с шаблоном прав
+Продавец Авто доступна настройка Открывать «CRM
+Контакт» вместо «События».
+Функция открытия
+CRM
+контакта вместо события отрабатывает корректно при режиме отображения «День»,
+В представлении «Неделя» двойное нажатие на событие
+ничего не открывает.</t>
+  </si>
+  <si>
+    <t>Все входящие звонки падают в воронку как первичные, пока их не обработает менеджер, т.к. менеджер выходной он не может обработать его в 1С и у нас в отчет падает необработанный контакт.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коллеги, добрый день.
+Прошу уточнить по какой причине не обновляются новые коды работ RTC в 1С?
+В TOPIx они давно присутствуют, приходится добавлять по одной работе через запросы. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">При формировании отчета (Внешние обработки) не выгружается адрес прописки (раньше выгружалось без проблем).
+Просьба исправить asap, т.к. без этого не можем подать аккредитацию на погрузку на 2018 год. Вопрос крайней степени срочности и важности </t>
+  </si>
+  <si>
+    <t xml:space="preserve">После того, как отбиваюсь сканером ШК в списании в список документов Заявка на получение материалов устанавливается «невидимый» отбор, который невозможно отключить.
+В результате приходится переоткрывать форму списка  //Бородин. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Коллеги, добрый день.
+ При согласовании перемещения, появляется н.у. ошибка.
+Просьба устранить ее в кротчайшие сроки.
+а/м WDD2229851A216257
+Спасибо!   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добрый день.
+1.Во всех МА, где автор  Администратор, не корректные даты начала и конца.
+2. МА №4849 и 4850  по Ренессанс должны относится только к страховым договорам марок Ауди Мерседес и Ягуар ленд ровер, БМВ и Форд, но эти МА находятся во всех договорах данного контрагента, даже в других типах договоров.
+Просьба отредактировать. </t>
+  </si>
+  <si>
+    <t>Коллеги, добрый день.
+Просьба перезалить тестовую базу «ПП Авилон – Обучение».
+Убрать доменную аутентификацию у всех пользователей.
+Добавить админские права к моему профилю, доступ по паролю 012018 и «показывать в списке выбора».
+Спасибо!</t>
+  </si>
+  <si>
+    <t>Прошу создать в ПП загрузку премии водителям, согласно приказа.</t>
   </si>
 </sst>
 </file>
@@ -103,10 +167,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.85546875" customWidth="1"/>
     <col min="3" max="3" width="46.85546875" customWidth="1"/>
   </cols>
@@ -496,6 +563,138 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
         <v>3</v>
       </c>
     </row>
